--- a/filterbank harmonic summation model/MH/amp_MH.xlsx
+++ b/filterbank harmonic summation model/MH/amp_MH.xlsx
@@ -586,148 +586,148 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1413882494653932</v>
+        <v>8.872291151193112e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1774267440108879</v>
+        <v>0.0001113375218113942</v>
       </c>
       <c r="D2" t="n">
-        <v>0.193360692816648</v>
+        <v>0.0001213362758469983</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1941922716742182</v>
+        <v>0.0001218581020784876</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1665053538107414</v>
+        <v>0.0001044842115824417</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1413746697049569</v>
+        <v>8.87143900408181e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1512943911458987</v>
+        <v>9.493914047768589e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1679606155871935</v>
+        <v>0.000105397406719287</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1785535556829997</v>
+        <v>0.0001120446103612094</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1647829319601352</v>
+        <v>0.0001034033701262714</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04889372671076736</v>
+        <v>3.068143077554505e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>0.07810690640106299</v>
+        <v>4.901306983638965e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1968166297770407</v>
+        <v>0.0001235049199195227</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2513003288309355</v>
+        <v>0.0001576941289116362</v>
       </c>
       <c r="P2" t="n">
-        <v>0.3727051126293449</v>
+        <v>0.0002338771634339489</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.3429201200305915</v>
+        <v>0.0002151867045541285</v>
       </c>
       <c r="R2" t="n">
-        <v>0.4117422829949654</v>
+        <v>0.0002583734806676725</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3976018673385292</v>
+        <v>0.000249500191325937</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4015866312791448</v>
+        <v>0.000252000681004789</v>
       </c>
       <c r="U2" t="n">
-        <v>0.4021220141498483</v>
+        <v>0.0002523366405151587</v>
       </c>
       <c r="V2" t="n">
-        <v>0.3490261346249243</v>
+        <v>0.0002190183057981635</v>
       </c>
       <c r="W2" t="n">
-        <v>0.3418944911337925</v>
+        <v>0.0002145431094732157</v>
       </c>
       <c r="X2" t="n">
-        <v>0.2817190639843212</v>
+        <v>0.0001767822692452449</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.2747347015704125</v>
+        <v>0.0001723994936556217</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.2496117196968211</v>
+        <v>0.000156634505361937</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.2504493939779341</v>
+        <v>0.0001571601565486517</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.2597454316917588</v>
+        <v>0.0001629935375729859</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.2420565127551798</v>
+        <v>0.0001518935176244685</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.3315981874124798</v>
+        <v>0.0002080820489012084</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.3416375827047653</v>
+        <v>0.0002143818961906309</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.3780640493495437</v>
+        <v>0.0002372399638803934</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.4320839971320095</v>
+        <v>0.0002711381630950032</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.451323053188007</v>
+        <v>0.0002832109136558421</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.4454796550189707</v>
+        <v>0.0002795441075341122</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.450368214718602</v>
+        <v>0.0002826117404618211</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.4624024014370176</v>
+        <v>0.0002901633445546165</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.3685571191003248</v>
+        <v>0.000231274245127662</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.3756347067095833</v>
+        <v>0.0002357155207042995</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.3305040787276353</v>
+        <v>0.0002073954818887661</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.3670299546887341</v>
+        <v>0.0002303159301795242</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.348451031141057</v>
+        <v>0.0002186574211015759</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.3214674387675483</v>
+        <v>0.0002017248762296996</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.2542778140598537</v>
+        <v>0.0001595625384823909</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.2445980940233915</v>
+        <v>0.0001534883919567595</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.2550564819724797</v>
+        <v>0.0001600511624279473</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.2465050771694926</v>
+        <v>0.0001546850479558685</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.2262913209227815</v>
+        <v>0.0001420006607201409</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.1962279965994505</v>
+        <v>0.0001231355451693169</v>
       </c>
     </row>
     <row r="3">
@@ -737,148 +737,148 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1422290010738659</v>
+        <v>8.925049376041418e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1875827077295083</v>
+        <v>0.0001177105172599735</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2403245018047501</v>
+        <v>0.0001508066588871002</v>
       </c>
       <c r="E3" t="n">
-        <v>0.254966654017372</v>
+        <v>0.0001599947942520737</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3034275717944429</v>
+        <v>0.0001904046319576775</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3283037416608392</v>
+        <v>0.0002060147426009405</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2900333248702345</v>
+        <v>0.0001819995729155089</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2903410128746612</v>
+        <v>0.0001821926510227296</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2829664777544001</v>
+        <v>0.0001775650371340896</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2503805043247209</v>
+        <v>0.000157116927421555</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07730742134725137</v>
+        <v>4.851138287193083e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>0.08154320151866007</v>
+        <v>5.116938840458914e-05</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3337095793505916</v>
+        <v>0.0002094069739978866</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3779891427406701</v>
+        <v>0.000237192959037658</v>
       </c>
       <c r="P3" t="n">
-        <v>0.3996599134742675</v>
+        <v>0.0002507916412581555</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.3965017846724467</v>
+        <v>0.0002488098755648486</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3041465209813159</v>
+        <v>0.000190855781648898</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2425112994353087</v>
+        <v>0.0001521789020077567</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3205935011034961</v>
+        <v>0.0002011764693123791</v>
       </c>
       <c r="U3" t="n">
-        <v>0.3209209580969987</v>
+        <v>0.0002013819527098209</v>
       </c>
       <c r="V3" t="n">
-        <v>0.2951393825976819</v>
+        <v>0.0001852036886015017</v>
       </c>
       <c r="W3" t="n">
-        <v>0.2358965899975349</v>
+        <v>0.0001480280883273852</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2300241703118031</v>
+        <v>0.0001443430708375432</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.22244665186039</v>
+        <v>0.0001395880823460186</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.2569122437795605</v>
+        <v>0.0001612156763901711</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.226707082493941</v>
+        <v>0.0001422615563548738</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.246074863275153</v>
+        <v>0.000154415083305885</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.2403019301360988</v>
+        <v>0.0001507924948800628</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.2375464613072717</v>
+        <v>0.0001490634034032372</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.2105312440733899</v>
+        <v>0.0001321110135322249</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.2036776292033558</v>
+        <v>0.0001278102836770206</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.2390969728930626</v>
+        <v>0.0001500363689979348</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.2584363685032656</v>
+        <v>0.000162172083895786</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.2561624429501292</v>
+        <v>0.0001607451669037553</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.2479596717583613</v>
+        <v>0.0001555978244240821</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.2570830403301411</v>
+        <v>0.0001613228533819014</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.2254583527393034</v>
+        <v>0.0001414779626691048</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.2354506660496447</v>
+        <v>0.0001477482654204652</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.2101070065463719</v>
+        <v>0.0001318447991281851</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.2160621665309022</v>
+        <v>0.0001355817372000876</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.1802322458646305</v>
+        <v>0.0001130980096430021</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.1708029753635803</v>
+        <v>0.0001071810233626712</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.1569535188328382</v>
+        <v>9.849031454555601e-05</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.1437409257386888</v>
+        <v>9.019924557505932e-05</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.1561438001193277</v>
+        <v>9.798220583044013e-05</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.1542439159380329</v>
+        <v>9.679000452136885e-05</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.1361511732982136</v>
+        <v>8.543658010094884e-05</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.1030590974548999</v>
+        <v>6.467088473450987e-05</v>
       </c>
     </row>
     <row r="4">
@@ -888,148 +888,148 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2801884040847644</v>
+        <v>0.0001758217608342791</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3167713698401813</v>
+        <v>0.0001987780336917085</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3088193170039365</v>
+        <v>0.0001937880201453491</v>
       </c>
       <c r="E4" t="n">
-        <v>0.296934092113239</v>
+        <v>0.0001863298914800327</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2806192101660012</v>
+        <v>0.0001760920970890167</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2888591512308505</v>
+        <v>0.0001812627641333038</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2861700701408859</v>
+        <v>0.000179575331800734</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3162721494787998</v>
+        <v>0.0001984647666124761</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3157693473239862</v>
+        <v>0.0001981492519126463</v>
       </c>
       <c r="K4" t="n">
-        <v>0.352794613282352</v>
+        <v>0.0002213830737312964</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1147727973757867</v>
+        <v>7.202137931583315e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>0.09970358637990266</v>
+        <v>6.256525917290934e-05</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1847310377181579</v>
+        <v>0.0001159210583266114</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2278396673539404</v>
+        <v>0.0001429722676529728</v>
       </c>
       <c r="P4" t="n">
-        <v>0.2185750912322</v>
+        <v>0.000137158629174862</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.194534233447549</v>
+        <v>0.0001220726874083888</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2296993782670797</v>
+        <v>0.0001441392597291043</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2452482189157189</v>
+        <v>0.0001538963535342723</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2025854860631299</v>
+        <v>0.0001271249500686407</v>
       </c>
       <c r="U4" t="n">
-        <v>0.211336041653041</v>
+        <v>0.0001326160341737166</v>
       </c>
       <c r="V4" t="n">
-        <v>0.181414326182616</v>
+        <v>0.0001138397799658484</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1369519040902876</v>
+        <v>8.593904878189429e-05</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1351676405197087</v>
+        <v>8.48194008657131e-05</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1424681298160799</v>
+        <v>8.940055006506208e-05</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.126203194431953</v>
+        <v>7.919409777295433e-05</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.0959913674129905</v>
+        <v>6.023579490583194e-05</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.07462451957930147</v>
+        <v>4.682782814193691e-05</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.09515570795121882</v>
+        <v>5.971140804369014e-05</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.09489925373634531</v>
+        <v>5.955047978622096e-05</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.1281496039302237</v>
+        <v>8.041549430579226e-05</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.1974985832230795</v>
+        <v>0.0001239328543163127</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.2401327045529913</v>
+        <v>0.0001506863036902548</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.2845547175601545</v>
+        <v>0.0001785616776631186</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.2950342046151795</v>
+        <v>0.0001851376880896498</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.2996174677957451</v>
+        <v>0.0001880137435973936</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.2508650162462386</v>
+        <v>0.0001574209647690845</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.1949071583749949</v>
+        <v>0.0001223067025083952</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.1481655998839507</v>
+        <v>9.297578446102443e-05</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.1411091489916327</v>
+        <v>8.854777244111001e-05</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.121752610248477</v>
+        <v>7.640130001090561e-05</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.1179045761437505</v>
+        <v>7.398661003023564e-05</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.1306969888390013</v>
+        <v>8.201401049580718e-05</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.1492074058789824</v>
+        <v>9.362953087530774e-05</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.1580248585869034</v>
+        <v>9.916259376648528e-05</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.148679830115166</v>
+        <v>9.329847042307139e-05</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.1250802736624908</v>
+        <v>7.848945081367295e-05</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.09222519566562433</v>
+        <v>5.787247458788646e-05</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.07465765074398302</v>
+        <v>4.684861836604283e-05</v>
       </c>
     </row>
     <row r="5">
@@ -1039,148 +1039,148 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1547983253029889</v>
+        <v>9.713790339708427e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1740222633365875</v>
+        <v>0.0001092011672080085</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1647961528158968</v>
+        <v>0.00010341166638017</v>
       </c>
       <c r="E5" t="n">
-        <v>0.17919564429773</v>
+        <v>0.000112447529073075</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1825609281253822</v>
+        <v>0.0001145592871603438</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1555088999839606</v>
+        <v>9.758379798012668e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.135595890595922</v>
+        <v>8.50881331950298e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1904923427887849</v>
+        <v>0.0001195363499926957</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2229845436668767</v>
+        <v>0.0001399256162452667</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2931101427379059</v>
+        <v>0.0001839303149711177</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04411345081619967</v>
+        <v>2.768174730255492e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0563076061721058</v>
+        <v>3.53337337349183e-05</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1092648012301505</v>
+        <v>6.856504219810858e-05</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1707959731146632</v>
+        <v>0.000107176629363075</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1647680442144035</v>
+        <v>0.0001033940278778726</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1912551778612412</v>
+        <v>0.0001200150386311621</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1985836988636254</v>
+        <v>0.0001246137780799238</v>
       </c>
       <c r="S5" t="n">
-        <v>0.199952130092838</v>
+        <v>0.0001254724859521739</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1772799359941949</v>
+        <v>0.0001112453979275245</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2009703760435341</v>
+        <v>0.0001261114481412001</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1943369492896274</v>
+        <v>0.0001219488891086563</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1922322146988279</v>
+        <v>0.0001206281415814629</v>
       </c>
       <c r="X5" t="n">
-        <v>0.2100525429550724</v>
+        <v>0.0001318106225370627</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.2177440894735792</v>
+        <v>0.0001366371650802492</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.2000177053595207</v>
+        <v>0.0001255136352598799</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.1933349965506578</v>
+        <v>0.0001213201511156839</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.1712256704145082</v>
+        <v>0.0001074462698434912</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.1491645608301731</v>
+        <v>9.36026450662776e-05</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.1902163648625131</v>
+        <v>0.0001193631703598447</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.2537995839394545</v>
+        <v>0.0001592624430443686</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.2675502676015565</v>
+        <v>0.0001678911706394424</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.2684073193878564</v>
+        <v>0.0001684289814552956</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.278292506784671</v>
+        <v>0.0001746320613434946</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.2759348813631114</v>
+        <v>0.0001731526216273496</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.3302758917578057</v>
+        <v>0.0002072522916844251</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.3271901861139378</v>
+        <v>0.0002053159724370483</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.2834376649049866</v>
+        <v>0.0001778607130196396</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.3069088286228034</v>
+        <v>0.0001925891645670054</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.2813153720818211</v>
+        <v>0.0001765289474799707</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.294221881566134</v>
+        <v>0.0001846279451211069</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.2983678845062468</v>
+        <v>0.000187229614307724</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.2667941059683556</v>
+        <v>0.0001674166696683584</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.2457098397202425</v>
+        <v>0.0001541860264168964</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.202107708797355</v>
+        <v>0.0001268251388026123</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.1859245678181</v>
+        <v>0.0001166700135321847</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.1595887465494281</v>
+        <v>0.000100143953206455</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.1315672422276459</v>
+        <v>8.25601054837968e-05</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.0890403587655888</v>
+        <v>5.587394922577039e-05</v>
       </c>
     </row>
     <row r="6">
@@ -1190,148 +1190,148 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.107457449214608</v>
+        <v>6.743090599122994e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1564992919204866</v>
+        <v>9.820528142361491e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2094192942893015</v>
+        <v>0.00013141325100477</v>
       </c>
       <c r="E6" t="n">
-        <v>0.240678681491612</v>
+        <v>0.0001510289111119887</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2569934751570326</v>
+        <v>0.0001612666501050499</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2414054628843171</v>
+        <v>0.0001514849756112473</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1707109524626589</v>
+        <v>0.0001071232778305892</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1783768141991172</v>
+        <v>0.0001119337028487797</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2198298963743567</v>
+        <v>0.0001379460352429989</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2563121293285537</v>
+        <v>0.0001608390969959498</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03136064679732144</v>
+        <v>1.967920178145152e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02651007812694078</v>
+        <v>1.663540870421942e-05</v>
       </c>
       <c r="N6" t="n">
-        <v>0.07987127764308323</v>
+        <v>5.012023506526727e-05</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1442039668089573</v>
+        <v>9.048980969236859e-05</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2016441757773521</v>
+        <v>0.000126534265980634</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1997963967683702</v>
+        <v>0.0001253747613249969</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1958131630487632</v>
+        <v>0.0001228752318791461</v>
       </c>
       <c r="S6" t="n">
-        <v>0.2236570776486779</v>
+        <v>0.0001403476398093304</v>
       </c>
       <c r="T6" t="n">
-        <v>0.2259550856415497</v>
+        <v>0.0001417896688363266</v>
       </c>
       <c r="U6" t="n">
-        <v>0.2376853787144761</v>
+        <v>0.0001491505758300369</v>
       </c>
       <c r="V6" t="n">
-        <v>0.2253757512197898</v>
+        <v>0.0001414261291727975</v>
       </c>
       <c r="W6" t="n">
-        <v>0.2355875821254274</v>
+        <v>0.0001478341819865319</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2404052366466742</v>
+        <v>0.0001508573210196539</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.232867486807397</v>
+        <v>0.0001461272878343081</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.2441818990718087</v>
+        <v>0.0001532272243703398</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.1875289540803442</v>
+        <v>0.0001176767861665038</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.16198587266222</v>
+        <v>0.0001016481801050292</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.1719738578809773</v>
+        <v>0.0001079157669242803</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.2232363054097307</v>
+        <v>0.000140083599917303</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.2521495914755661</v>
+        <v>0.0001582270519427569</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.2950087944877517</v>
+        <v>0.0001851217429138957</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.3367592811050314</v>
+        <v>0.000211320700350112</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.3244825901041353</v>
+        <v>0.0002036169217585366</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.3210031696433653</v>
+        <v>0.0002014335414930552</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.3614754618629283</v>
+        <v>0.0002268304158079905</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.3454208549422987</v>
+        <v>0.0002167559472820434</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.3226137068294179</v>
+        <v>0.0002024441739097172</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.2442304927732667</v>
+        <v>0.0001532577175314816</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.2192432236491069</v>
+        <v>0.0001375778907013866</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.2301692981330199</v>
+        <v>0.0001444341403775398</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.1867553168630753</v>
+        <v>0.0001171913190457946</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.1676073286554179</v>
+        <v>0.0001051757147094858</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.1458789563180617</v>
+        <v>9.15408867554315e-05</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.1292231736021922</v>
+        <v>8.108917282835759e-05</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.1253156144782171</v>
+        <v>7.863713014662872e-05</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.1173364027937792</v>
+        <v>7.363007408015817e-05</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.105249582480393</v>
+        <v>6.60454417420397e-05</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.08500408449210353</v>
+        <v>5.334113616274446e-05</v>
       </c>
     </row>
     <row r="7">
@@ -1341,148 +1341,148 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3515328080876779</v>
+        <v>0.000220591275041832</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3563288349202487</v>
+        <v>0.0002236008424272687</v>
       </c>
       <c r="D7" t="n">
-        <v>0.390245855788601</v>
+        <v>0.0002448842012115338</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5042152314265025</v>
+        <v>0.0003164014232439528</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5163159114190949</v>
+        <v>0.0003239947527057463</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4583701978396497</v>
+        <v>0.0002876330858922451</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3580914935941234</v>
+        <v>0.0002247069329980145</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4002552491613512</v>
+        <v>0.0002511652219176851</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4357613127809729</v>
+        <v>0.0002734457250894267</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5391844305416984</v>
+        <v>0.0003383450371614588</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07328343066074007</v>
+        <v>4.598627791480663e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0672864147658561</v>
+        <v>4.222307473074241e-05</v>
       </c>
       <c r="N7" t="n">
-        <v>0.5253644864798994</v>
+        <v>0.0003296728477911891</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5202360088542933</v>
+        <v>0.0003264546633360592</v>
       </c>
       <c r="P7" t="n">
-        <v>0.4967103207730049</v>
+        <v>0.0003116919970622658</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.3987851567198498</v>
+        <v>0.00025024272035129</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3267725207681431</v>
+        <v>0.0002050538821596974</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3137461128059199</v>
+        <v>0.0001968796467100002</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2653953915524199</v>
+        <v>0.000166538958714126</v>
       </c>
       <c r="U7" t="n">
-        <v>0.3169568712464121</v>
+        <v>0.0001988944381660024</v>
       </c>
       <c r="V7" t="n">
-        <v>0.3041844114427212</v>
+        <v>0.0001908795583917823</v>
       </c>
       <c r="W7" t="n">
-        <v>0.2961063758011228</v>
+        <v>0.000185810489044579</v>
       </c>
       <c r="X7" t="n">
-        <v>0.2652076611269386</v>
+        <v>0.0001664211555021118</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.2260692891878608</v>
+        <v>0.0001418613330034128</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.1880626508954529</v>
+        <v>0.000118011687655702</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.143915548795894</v>
+        <v>9.030882374800464e-05</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.1448970304691509</v>
+        <v>9.092471588880285e-05</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.1713594580432294</v>
+        <v>0.0001075302232695313</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.2586121547193529</v>
+        <v>0.0001622823919656143</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.3838965272403339</v>
+        <v>0.0002408999173896596</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.4564096769991189</v>
+        <v>0.0002864028343139886</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.5166627035659306</v>
+        <v>0.0003242123691560034</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.4977888180314332</v>
+        <v>0.0003123687677075436</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.4876787900359773</v>
+        <v>0.0003060245975051709</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.4866313950815147</v>
+        <v>0.0003053673439482863</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.4777208772633377</v>
+        <v>0.0002997758815255119</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.4310467292170814</v>
+        <v>0.0002704872643832764</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.3624086280507748</v>
+        <v>0.0002274159893717292</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.3982815292177352</v>
+        <v>0.0002499266877356092</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.3547756493406748</v>
+        <v>0.0002226261988677141</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.3103365547878505</v>
+        <v>0.0001947401060093</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.2652075343098117</v>
+        <v>0.0001664210759227638</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.2032312098821771</v>
+        <v>0.0001275301499171083</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.1968899178372774</v>
+        <v>0.0001235509091025549</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.2109985566354657</v>
+        <v>0.0001324042580645692</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.2182138058629297</v>
+        <v>0.0001369319180445558</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.1922794661822063</v>
+        <v>0.0001206577924838148</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.169276552449393</v>
+        <v>0.0001062231737135151</v>
       </c>
     </row>
     <row r="8">
@@ -1492,148 +1492,148 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2015855185778769</v>
+        <v>0.0001264974578474387</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1705441206474841</v>
+        <v>0.0001070185887603794</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2287756532309845</v>
+        <v>0.0001435596106072805</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2753948474522236</v>
+        <v>0.0001728137435305467</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3277550674964032</v>
+        <v>0.000205670442635956</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3171387359528619</v>
+        <v>0.0001990085605652718</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3424415384590498</v>
+        <v>0.0002148863885760773</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4071428898106936</v>
+        <v>0.0002554873033789678</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4024735017215187</v>
+        <v>0.0002525572034037777</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4372511050245338</v>
+        <v>0.0002743805885303167</v>
       </c>
       <c r="L8" t="n">
-        <v>0.09311227470739447</v>
+        <v>5.842912788562976e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0918142641936853</v>
+        <v>5.761460990139258e-05</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1345891303846672</v>
+        <v>8.445637845250609e-05</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1791543698012171</v>
+        <v>0.0001124216288054385</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2637121173316874</v>
+        <v>0.0001654826828899252</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.2803784488935964</v>
+        <v>0.000175941016351064</v>
       </c>
       <c r="R8" t="n">
-        <v>0.2392086869751907</v>
+        <v>0.0001501064709948176</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3086244803045058</v>
+        <v>0.0001936657576567178</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2606529689898002</v>
+        <v>0.000163563028684817</v>
       </c>
       <c r="U8" t="n">
-        <v>0.290390541156927</v>
+        <v>0.000182223730645127</v>
       </c>
       <c r="V8" t="n">
-        <v>0.2605544115483382</v>
+        <v>0.0001635011826460497</v>
       </c>
       <c r="W8" t="n">
-        <v>0.2566862188513622</v>
+        <v>0.0001610738428942487</v>
       </c>
       <c r="X8" t="n">
-        <v>0.2369099371315107</v>
+        <v>0.0001486639764470736</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.2457628362725027</v>
+        <v>0.0001542192824225008</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.224318242239041</v>
+        <v>0.0001407625289367326</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.185795547339052</v>
+        <v>0.000116589051552748</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.1520967625770976</v>
+        <v>9.54426386803947e-05</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.1704579660868491</v>
+        <v>0.0001069645256859126</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.1736126704539908</v>
+        <v>0.0001089441425032262</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.1617712984314587</v>
+        <v>0.0001015135320663092</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.1462367539108383</v>
+        <v>9.176540926195614e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.1477095043913565</v>
+        <v>9.268957878139101e-05</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.1600809626128316</v>
+        <v>0.0001004528250002795</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.1901622232210882</v>
+        <v>0.0001193291957963332</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.2332557336568267</v>
+        <v>0.0001463709176337927</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.2604054589901217</v>
+        <v>0.0001634077130353</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.2155891795318975</v>
+        <v>0.0001352849318869327</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.2007687268934537</v>
+        <v>0.0001259849107537815</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.2118037146668584</v>
+        <v>0.0001329095048940793</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.2139106180660064</v>
+        <v>0.0001342316133758917</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.2203377704143253</v>
+        <v>0.000138264732614794</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.2161909731712997</v>
+        <v>0.0001356625649930714</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.2202957675008795</v>
+        <v>0.0001382383752563361</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.1936697969730693</v>
+        <v>0.000121530242607474</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.1944555569977791</v>
+        <v>0.0001220233169428982</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.179446901585376</v>
+        <v>0.0001126051961930997</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.1536766613724811</v>
+        <v>9.643404512011391e-05</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.1359105548751988</v>
+        <v>8.528558900279179e-05</v>
       </c>
     </row>
     <row r="9">
@@ -1643,148 +1643,148 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3423893126734363</v>
+        <v>0.0002148536162362743</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3094096934067309</v>
+        <v>0.0001941584887913781</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3642819596322912</v>
+        <v>0.0002285915285892232</v>
       </c>
       <c r="E9" t="n">
-        <v>0.384180692250405</v>
+        <v>0.0002410782345209534</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4213937172684905</v>
+        <v>0.0002644298775199638</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4002588625064559</v>
+        <v>0.0002511674893373554</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3600174038823171</v>
+        <v>0.0002259154660177344</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2425883161249021</v>
+        <v>0.0001522272309527827</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2544688465189359</v>
+        <v>0.0001596824137621764</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2421584076509996</v>
+        <v>0.0001519574579579794</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08526776775822811</v>
+        <v>5.350660074113769e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2492549937355459</v>
+        <v>0.0001564106553177084</v>
       </c>
       <c r="N9" t="n">
-        <v>0.5402650251175874</v>
+        <v>0.0003390231238999212</v>
       </c>
       <c r="O9" t="n">
-        <v>0.7767194671088575</v>
+        <v>0.0004874012713960425</v>
       </c>
       <c r="P9" t="n">
-        <v>0.7367336022653782</v>
+        <v>0.0004623096364005586</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.7416774189582351</v>
+        <v>0.0004654119437891153</v>
       </c>
       <c r="R9" t="n">
-        <v>0.4623040410686491</v>
+        <v>0.0002901016221817034</v>
       </c>
       <c r="S9" t="n">
-        <v>0.3771661483320811</v>
+        <v>0.0002366765196562797</v>
       </c>
       <c r="T9" t="n">
-        <v>0.4175227668119899</v>
+        <v>0.0002620008072392455</v>
       </c>
       <c r="U9" t="n">
-        <v>0.3826258375342578</v>
+        <v>0.0002401025435571269</v>
       </c>
       <c r="V9" t="n">
-        <v>0.3483354774702696</v>
+        <v>0.0002185849097143361</v>
       </c>
       <c r="W9" t="n">
-        <v>0.3166001631634715</v>
+        <v>0.0001986705993406545</v>
       </c>
       <c r="X9" t="n">
-        <v>0.254685966107126</v>
+        <v>0.0001598186590448172</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1814511819519044</v>
+        <v>0.0001138629074263669</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.1962039051602826</v>
+        <v>0.0001231204274870938</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.2433653879075026</v>
+        <v>0.0001527148533065976</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.2679262574030067</v>
+        <v>0.0001681271089865795</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.2999705960766724</v>
+        <v>0.0001882353360517845</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.3806601949428722</v>
+        <v>0.0002388690780155489</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.371188214731412</v>
+        <v>0.000232925290852742</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.4115153839780691</v>
+        <v>0.000258231098670057</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.48513297136546</v>
+        <v>0.0003044270641494375</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.4363582114472579</v>
+        <v>0.0002738202865381373</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.4225231306295795</v>
+        <v>0.0002651385986624574</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.4500157446162152</v>
+        <v>0.0002823905610227737</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.4253114832086155</v>
+        <v>0.0002668883251076838</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.4043439893169118</v>
+        <v>0.000253730957984075</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.3208898361359143</v>
+        <v>0.0002013624232863376</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.3048480377539737</v>
+        <v>0.0001912959922801208</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.264354480726671</v>
+        <v>0.0001658857740298688</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.2202043402008248</v>
+        <v>0.0001381810034713172</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.206564639619686</v>
+        <v>0.0001296219191606665</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.1735250965998412</v>
+        <v>0.000108889188804161</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.1601726464169575</v>
+        <v>0.0001005103577448414</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.170913225297614</v>
+        <v>0.0001072502065881404</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.1637577367359854</v>
+        <v>0.000102760047180421</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.1415145163972853</v>
+        <v>8.880214560576499e-05</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.1189908516565291</v>
+        <v>7.466826162831576e-05</v>
       </c>
     </row>
     <row r="10">
@@ -1794,148 +1794,148 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1871521739896777</v>
+        <v>0.0001174403519029065</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2728482194012346</v>
+        <v>0.0001712157022783491</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2495666586447908</v>
+        <v>0.0001566062289829095</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2475830103277492</v>
+        <v>0.000155361464621167</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2889268039725588</v>
+        <v>0.0001813052170828156</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2203024776800336</v>
+        <v>0.0001382425859784687</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2641674953730931</v>
+        <v>0.0001657684383598804</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3015294553911742</v>
+        <v>0.0001892135399516351</v>
       </c>
       <c r="J10" t="n">
-        <v>0.362976831852616</v>
+        <v>0.0002277725444307395</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3695625011222329</v>
+        <v>0.0002319051350389717</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0719495245631956</v>
+        <v>4.514923499854483e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>0.09267123416647899</v>
+        <v>5.81523693782377e-05</v>
       </c>
       <c r="N10" t="n">
-        <v>0.197578610884791</v>
+        <v>0.0001239830726843552</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2196766086073594</v>
+        <v>0.0001378498452340088</v>
       </c>
       <c r="P10" t="n">
-        <v>0.1526908252525141</v>
+        <v>9.581542050903184e-05</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.09149240891584885</v>
+        <v>5.741264165125084e-05</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1437155007825569</v>
+        <v>9.018329109410624e-05</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1831011650181174</v>
+        <v>0.0001148982926308186</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1725277136382681</v>
+        <v>0.0001082633184041967</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1646094851744076</v>
+        <v>0.0001032945300785282</v>
       </c>
       <c r="V10" t="n">
-        <v>0.1891702680414895</v>
+        <v>0.0001187067313980814</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1780996549600679</v>
+        <v>0.0001117597819272472</v>
       </c>
       <c r="X10" t="n">
-        <v>0.15448127466987</v>
+        <v>9.693895012215952e-05</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.1503425628070189</v>
+        <v>9.434185617857133e-05</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.1341107302578697</v>
+        <v>8.415617633332264e-05</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.09605009264061826</v>
+        <v>6.02726457275518e-05</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.1042266479146025</v>
+        <v>6.540353738784983e-05</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.142167245004101</v>
+        <v>8.921174104699003e-05</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.1961708418309919</v>
+        <v>0.0001230996798305521</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.2316221868102873</v>
+        <v>0.0001453458463646872</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.3073781191649108</v>
+        <v>0.0001928836503067908</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.3197941859670297</v>
+        <v>0.0002006748889731996</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.3167799927427872</v>
+        <v>0.0001987834446719545</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.2899448477373062</v>
+        <v>0.0001819440523976066</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.331376874307032</v>
+        <v>0.0002079431721335469</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.3253846022794042</v>
+        <v>0.0002041829457860753</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.261793678633865</v>
+        <v>0.0001642788383874892</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.2649637332624046</v>
+        <v>0.0001662680876876211</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.2378646184946077</v>
+        <v>0.0001492630510549029</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.1779624581767111</v>
+        <v>0.000111673689213634</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.1478702830769955</v>
+        <v>9.279046943639867e-05</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.1267861756316333</v>
+        <v>7.955992583566763e-05</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.1110249669305629</v>
+        <v>6.966956839653395e-05</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.1565216847929881</v>
+        <v>9.821933323381106e-05</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.1485913105056045</v>
+        <v>9.324292325054543e-05</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.152219164593176</v>
+        <v>9.551944749076237e-05</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.1396414172807197</v>
+        <v>8.762675226296243e-05</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.1282251062694862</v>
+        <v>8.046287297686753e-05</v>
       </c>
     </row>
     <row r="11">
@@ -1945,148 +1945,148 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2175748998863675</v>
+        <v>0.0001365309964783202</v>
       </c>
       <c r="C11" t="n">
-        <v>0.28819050645086</v>
+        <v>0.0001808431810924759</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3203149447134857</v>
+        <v>0.00020100167166098</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3967228658986369</v>
+        <v>0.0002489486068253486</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3795306064891611</v>
+        <v>0.0002381602470002245</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3075127752020413</v>
+        <v>0.000192968148670071</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2975857604723705</v>
+        <v>0.0001867388216024507</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3373101931301661</v>
+        <v>0.000211666404600937</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4264527348909918</v>
+        <v>0.0002676044749462397</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4419751087952884</v>
+        <v>0.0002773449605352001</v>
       </c>
       <c r="L11" t="n">
-        <v>0.06680720176695135</v>
+        <v>4.192236252404944e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>0.08564170587625435</v>
+        <v>5.374125163102439e-05</v>
       </c>
       <c r="N11" t="n">
-        <v>0.2946063254523413</v>
+        <v>0.0001848691885131586</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3489753207671685</v>
+        <v>0.0002189864194609163</v>
       </c>
       <c r="P11" t="n">
-        <v>0.3586918490331367</v>
+        <v>0.0002250836636152524</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.3414748854853821</v>
+        <v>0.0002142798016314779</v>
       </c>
       <c r="R11" t="n">
-        <v>0.3409439183539241</v>
+        <v>0.0002139466130532317</v>
       </c>
       <c r="S11" t="n">
-        <v>0.3354218214872443</v>
+        <v>0.0002104814275550361</v>
       </c>
       <c r="T11" t="n">
-        <v>0.2806307793345169</v>
+        <v>0.0001760993568883166</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2788514592584842</v>
+        <v>0.0001749828110773728</v>
       </c>
       <c r="V11" t="n">
-        <v>0.2244311772242315</v>
+        <v>0.0001408333970657004</v>
       </c>
       <c r="W11" t="n">
-        <v>0.2257770115799014</v>
+        <v>0.0001416779251145256</v>
       </c>
       <c r="X11" t="n">
-        <v>0.2199013368004579</v>
+        <v>0.0001379908650122853</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.2372367253357521</v>
+        <v>0.0001488690401708108</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.2347952166857348</v>
+        <v>0.0001473369626698151</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.2745935528039125</v>
+        <v>0.0001723109210226939</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.3045919379144619</v>
+        <v>0.0001911352863976649</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.290922295223898</v>
+        <v>0.0001825574130353423</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.397157201761511</v>
+        <v>0.0002492211580626258</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.4002471921453948</v>
+        <v>0.0002511601660384558</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.4638829468617533</v>
+        <v>0.0002910924054999561</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.5457383657262022</v>
+        <v>0.0003424577142306518</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.5074771637598133</v>
+        <v>0.0003184483269637494</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.5021230774866603</v>
+        <v>0.0003150885702340611</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.4992680441437075</v>
+        <v>0.0003132970007676578</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.513488097431571</v>
+        <v>0.0003222202637285084</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.405708930448435</v>
+        <v>0.0002545874757759638</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.4331705289137798</v>
+        <v>0.000271819975505111</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.3830660101642993</v>
+        <v>0.0002403787574394885</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.3714129121083251</v>
+        <v>0.0002330662912934732</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.3527021036535569</v>
+        <v>0.0002213250227713289</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.290085636841648</v>
+        <v>0.0001820323993379894</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.2388599525191181</v>
+        <v>0.0001498876357209933</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.2519791383025175</v>
+        <v>0.000158120090424763</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.252534779447669</v>
+        <v>0.0001584687622581018</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.2391263954448421</v>
+        <v>0.0001500548320206249</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.2088312261905286</v>
+        <v>0.000131044230848656</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.1652324384077566</v>
+        <v>0.0001036854410970002</v>
       </c>
     </row>
     <row r="12">
@@ -2096,148 +2096,148 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1896412519771361</v>
+        <v>0.0001190022797636912</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2176151397105914</v>
+        <v>0.000136556247476033</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2417670880689256</v>
+        <v>0.0001517118999799684</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2458128177720406</v>
+        <v>0.0001542506464444581</v>
       </c>
       <c r="F12" t="n">
-        <v>0.233050244057242</v>
+        <v>0.000146241970315826</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2312143596469644</v>
+        <v>0.0001450899296710406</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2123585885366509</v>
+        <v>0.0001332576952524438</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1605504817020575</v>
+        <v>0.0001007474541562672</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1561742385703011</v>
+        <v>9.800130634269969e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2038507604556049</v>
+        <v>0.0001279189257235226</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1038367585560987</v>
+        <v>6.51588768931851e-05</v>
       </c>
       <c r="M12" t="n">
-        <v>0.06417718504835952</v>
+        <v>4.027199383018116e-05</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1372855182759622</v>
+        <v>8.614839589515621e-05</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1424957718889828</v>
+        <v>8.941789581477925e-05</v>
       </c>
       <c r="P12" t="n">
-        <v>0.1972897587815854</v>
+        <v>0.0001238018143429466</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.2132237736112877</v>
+        <v>0.000133800609809408</v>
       </c>
       <c r="R12" t="n">
-        <v>0.2664625488558556</v>
+        <v>0.0001672086133944833</v>
       </c>
       <c r="S12" t="n">
-        <v>0.2463672055639035</v>
+        <v>0.0001545985317827852</v>
       </c>
       <c r="T12" t="n">
-        <v>0.2806564987520573</v>
+        <v>0.000176115496147521</v>
       </c>
       <c r="U12" t="n">
-        <v>0.2504567561639771</v>
+        <v>0.0001571647764133385</v>
       </c>
       <c r="V12" t="n">
-        <v>0.2323028860373784</v>
+        <v>0.0001457729937232534</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1849198969808685</v>
+        <v>0.000116039569898238</v>
       </c>
       <c r="X12" t="n">
-        <v>0.184124271837376</v>
+        <v>0.0001155403050762344</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1598339271640164</v>
+        <v>0.0001002978071374203</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.1157699246865814</v>
+        <v>7.264708929170651e-05</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.1645500031128582</v>
+        <v>0.0001032572043339677</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.1520081680048774</v>
+        <v>9.538704446785405e-05</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.1664555572203797</v>
+        <v>0.0001044529635933269</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.2299067116304553</v>
+        <v>0.0001442693640321267</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.2429358875726979</v>
+        <v>0.0001524453364242307</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.2699714968747219</v>
+        <v>0.0001694105225754443</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.2774565668535072</v>
+        <v>0.0001741074984832684</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.2673866340841314</v>
+        <v>0.0001677884885414479</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.2439647468173104</v>
+        <v>0.0001530909585891782</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.2389474323926849</v>
+        <v>0.0001499425304460563</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.1980673610311614</v>
+        <v>0.0001242897695714856</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.2097636398549053</v>
+        <v>0.0001316293321944171</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.2295923593514272</v>
+        <v>0.0001440721040084596</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.2237970430026494</v>
+        <v>0.0001404354698359564</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.241491956660966</v>
+        <v>0.0001515392515480453</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.2302576259057562</v>
+        <v>0.0001444895671700361</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.2000419048962876</v>
+        <v>0.000125528820774711</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.1769798676749344</v>
+        <v>0.0001110571012689412</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.1378821418348305</v>
+        <v>8.652278471048952e-05</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.1310897263238515</v>
+        <v>8.226045822571073e-05</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.1148610085207889</v>
+        <v>7.207673292295387e-05</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.09626832962874313</v>
+        <v>6.04095921927584e-05</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.09393210329627173</v>
+        <v>5.89435806751716e-05</v>
       </c>
     </row>
     <row r="13">
@@ -2247,148 +2247,148 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.07998663517607593</v>
+        <v>5.019262337356478e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1202058403201559</v>
+        <v>7.543068235350725e-05</v>
       </c>
       <c r="D13" t="n">
-        <v>0.09596308802403526</v>
+        <v>6.021804923224608e-05</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1673130446130102</v>
+        <v>0.0001049910477576518</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1787135122483177</v>
+        <v>0.0001121449851253367</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1832118126551509</v>
+        <v>0.0001149677254199411</v>
       </c>
       <c r="H13" t="n">
-        <v>0.129408739826385</v>
+        <v>8.120561797674095e-05</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1102578407895631</v>
+        <v>6.918818705838341e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>0.09296172597222631</v>
+        <v>5.833465665369172e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>0.07318780079463025</v>
+        <v>4.592626896653236e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0517547579170199</v>
+        <v>3.247676397688968e-05</v>
       </c>
       <c r="M13" t="n">
-        <v>0.05081927540728825</v>
+        <v>3.188973689192535e-05</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1526241590053232</v>
+        <v>9.577358659728375e-05</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1515966894015814</v>
+        <v>9.512883644952633e-05</v>
       </c>
       <c r="P13" t="n">
-        <v>0.1203006280686517</v>
+        <v>7.549016286234728e-05</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.1484107527381686</v>
+        <v>9.31296209720069e-05</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1851178394303063</v>
+        <v>0.0001161637812842078</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1843326100271669</v>
+        <v>0.0001156710399205179</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2405595964250928</v>
+        <v>0.0001509541837293446</v>
       </c>
       <c r="U13" t="n">
-        <v>0.2633667931982978</v>
+        <v>0.0001652659876366385</v>
       </c>
       <c r="V13" t="n">
-        <v>0.2282432454797768</v>
+        <v>0.0001432255180219541</v>
       </c>
       <c r="W13" t="n">
-        <v>0.2205852659238538</v>
+        <v>0.000138420039171559</v>
       </c>
       <c r="X13" t="n">
-        <v>0.2069821147617193</v>
+        <v>0.0001298838900827559</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.1738775766734512</v>
+        <v>0.000109110374500277</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.1438270899087795</v>
+        <v>9.025331467958083e-05</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.1150826516319698</v>
+        <v>7.221581677337911e-05</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.07558800539282406</v>
+        <v>4.743242765356103e-05</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.06594481650747049</v>
+        <v>4.138120488644221e-05</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.07088633890035848</v>
+        <v>4.448207257280351e-05</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.08900905926929556</v>
+        <v>5.585430839670224e-05</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.09015500351301532</v>
+        <v>5.657340287674277e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.07986811933861773</v>
+        <v>5.011825318934279e-05</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.08194381793087679</v>
+        <v>5.142078026088361e-05</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.0660999491834129</v>
+        <v>4.147855259908658e-05</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.07435754872125988</v>
+        <v>4.666030055811117e-05</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.09343976598155287</v>
+        <v>5.863463279461583e-05</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.1064180380375685</v>
+        <v>6.677866235547041e-05</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.09351731464954549</v>
+        <v>5.868329556280337e-05</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.1054338887543876</v>
+        <v>6.616109625576735e-05</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.08842660546315438</v>
+        <v>5.548881128009284e-05</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.1059329454205072</v>
+        <v>6.647426061415626e-05</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.09560115145329787</v>
+        <v>5.999092946479803e-05</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.09435399147532993</v>
+        <v>5.920832083370699e-05</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.08835066786004081</v>
+        <v>5.544115947545598e-05</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.08060579300672348</v>
+        <v>5.058115272892615e-05</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.07060684675042923</v>
+        <v>4.430668772024176e-05</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.07604394026548351</v>
+        <v>4.771853254215767e-05</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.05943700043144465</v>
+        <v>3.729746814005518e-05</v>
       </c>
     </row>
     <row r="14">
@@ -2398,148 +2398,148 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2675991483705261</v>
+        <v>0.0001679218439390719</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3082360591622209</v>
+        <v>0.0001934220184862661</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2735959451110829</v>
+        <v>0.000171684909601029</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2768184098662713</v>
+        <v>0.0001737070469172908</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2594359649642965</v>
+        <v>0.0001627993432946046</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2594693719408791</v>
+        <v>0.0001628203065941605</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2034860837082006</v>
+        <v>0.0001276900864606223</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2376399724740211</v>
+        <v>0.000149122082840915</v>
       </c>
       <c r="J14" t="n">
-        <v>0.269747977114508</v>
+        <v>0.0001692702611040588</v>
       </c>
       <c r="K14" t="n">
-        <v>0.3217803249409708</v>
+        <v>0.00020192121625359</v>
       </c>
       <c r="L14" t="n">
-        <v>0.08867067513542666</v>
+        <v>5.564196808072967e-05</v>
       </c>
       <c r="M14" t="n">
-        <v>0.07939914806687012</v>
+        <v>4.982396779573881e-05</v>
       </c>
       <c r="N14" t="n">
-        <v>0.2398907999681565</v>
+        <v>0.0001505345055093185</v>
       </c>
       <c r="O14" t="n">
-        <v>0.2909300443012829</v>
+        <v>0.0001825622756792305</v>
       </c>
       <c r="P14" t="n">
-        <v>0.2599064117148776</v>
+        <v>0.0001630945545698039</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.2488695046401461</v>
+        <v>0.0001561687560436931</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1824362186860795</v>
+        <v>0.0001144810304127725</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1687409652773869</v>
+        <v>0.0001058870860014987</v>
       </c>
       <c r="T14" t="n">
-        <v>0.1800447583737327</v>
+        <v>0.0001129803588755061</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1982458151093747</v>
+        <v>0.0001244017517584787</v>
       </c>
       <c r="V14" t="n">
-        <v>0.2223103270418995</v>
+        <v>0.0001395025368013674</v>
       </c>
       <c r="W14" t="n">
-        <v>0.2274718317873163</v>
+        <v>0.0001427414461911332</v>
       </c>
       <c r="X14" t="n">
-        <v>0.2230605447298911</v>
+        <v>0.0001399733078717925</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.1955460947330447</v>
+        <v>0.0001227076431393978</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.1957929855073639</v>
+        <v>0.0001228625702171844</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.1999999542016313</v>
+        <v>0.0001255024961842027</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.2043424686809435</v>
+        <v>0.0001282274788425501</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.2124559568484242</v>
+        <v>0.0001333187950973191</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.2177665100306814</v>
+        <v>0.0001366512342628817</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.2452805934855481</v>
+        <v>0.0001539166689855567</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.3106805418675166</v>
+        <v>0.0001949559622444953</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.3786205294184655</v>
+        <v>0.0002375891621489891</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.3782641174997332</v>
+        <v>0.0002373655091704209</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.3749643658275963</v>
+        <v>0.0002352948733380563</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.3920433339551677</v>
+        <v>0.0002460121414535265</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.3998673989366495</v>
+        <v>0.0002509218410052245</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.3295162548385019</v>
+        <v>0.0002067756099274374</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.3370728343124573</v>
+        <v>0.0002115174589462607</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.3391803596975052</v>
+        <v>0.0002128399577320775</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.289224056524765</v>
+        <v>0.0001814917468120244</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.2813035354565087</v>
+        <v>0.0001765215198481543</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.2149287561056437</v>
+        <v>0.0001348705078493662</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.2033278140642306</v>
+        <v>0.0001275907702609376</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.180631485740369</v>
+        <v>0.0001133485377052783</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.1804190394576161</v>
+        <v>0.000113215224980798</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.166634122557182</v>
+        <v>0.0001045650155964893</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.1383209862758766</v>
+        <v>8.679816513748862e-05</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.1038361084866214</v>
+        <v>6.515846896638122e-05</v>
       </c>
     </row>
     <row r="15">
@@ -2549,148 +2549,148 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1224884650546712</v>
+        <v>7.686305819167699e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1386965775725868</v>
+        <v>8.703385341787033e-05</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1612049837203098</v>
+        <v>0.0001011581624355573</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1881101527879878</v>
+        <v>0.0001180414956929608</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2088070895296409</v>
+        <v>0.0001310290847892329</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2009677661302183</v>
+        <v>0.0001261098103876453</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1820508976437054</v>
+        <v>0.0001142392365941525</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1716516387278457</v>
+        <v>0.000107713570337797</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1521219023336473</v>
+        <v>9.545841419500941e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1909209827724392</v>
+        <v>0.0001198053269938541</v>
       </c>
       <c r="L15" t="n">
-        <v>0.07283977367821609</v>
+        <v>4.570787755727367e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>0.05639801287466714</v>
+        <v>3.539046508212549e-05</v>
       </c>
       <c r="N15" t="n">
-        <v>0.1004367839819075</v>
+        <v>6.302534992450575e-05</v>
       </c>
       <c r="O15" t="n">
-        <v>0.128136135534923</v>
+        <v>8.040704271770775e-05</v>
       </c>
       <c r="P15" t="n">
-        <v>0.1134415403085789</v>
+        <v>7.118599869955055e-05</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.1434682666530356</v>
+        <v>9.002814855659563e-05</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1687003973466514</v>
+        <v>0.0001058616291128076</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1666432840863287</v>
+        <v>0.0001045707645716896</v>
       </c>
       <c r="T15" t="n">
-        <v>0.1673347476208741</v>
+        <v>0.0001050046666690785</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1796701821126077</v>
+        <v>0.0001127453075427686</v>
       </c>
       <c r="V15" t="n">
-        <v>0.156113568368246</v>
+        <v>9.796323502497211e-05</v>
       </c>
       <c r="W15" t="n">
-        <v>0.1583481984794269</v>
+        <v>9.936549363108583e-05</v>
       </c>
       <c r="X15" t="n">
-        <v>0.1669822504233421</v>
+        <v>0.0001047834702274854</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.1649160843773744</v>
+        <v>0.0001034869249490871</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.1265842501902159</v>
+        <v>7.943321507194705e-05</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.1226411900233664</v>
+        <v>7.695889503762736e-05</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.0853451315482866</v>
+        <v>5.355514749608756e-05</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.08995739473475017</v>
+        <v>5.644940087364638e-05</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.1348614602988442</v>
+        <v>8.462726891171283e-05</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.1816526814497668</v>
+        <v>0.0001139893509051293</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.2399799669410661</v>
+        <v>0.000150590458910518</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.2485977622961699</v>
+        <v>0.0001559982342922052</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.2479938749970554</v>
+        <v>0.0001556192873881655</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.2025309007461377</v>
+        <v>0.0001270906970931094</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.2135382563930199</v>
+        <v>0.0001339979517251694</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.1844078476182384</v>
+        <v>0.0001157182524587609</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.1466624120507827</v>
+        <v>9.203251511854189e-05</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.1484036095788675</v>
+        <v>9.31251385493658e-05</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.1620287715021835</v>
+        <v>0.0001016750996686877</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.1915941400544101</v>
+        <v>0.0001202277416866433</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.2240383195484941</v>
+        <v>0.0001405868739144978</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.1968086414610985</v>
+        <v>0.0001234999071504196</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.1865113002093955</v>
+        <v>0.0001170381955149939</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.1762894638479204</v>
+        <v>0.0001106238641514064</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.1648219735296775</v>
+        <v>0.000103427869204044</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.1505451523206484</v>
+        <v>9.446898365598867e-05</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.1260667164136289</v>
+        <v>7.910845609347336e-05</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.1220157894069451</v>
+        <v>7.656644825538021e-05</v>
       </c>
     </row>
     <row r="16">
@@ -2700,148 +2700,148 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.270597029734259</v>
+        <v>0.0001698030523419162</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2532354143541342</v>
+        <v>0.0001589084195071555</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2856712840078105</v>
+        <v>0.0001792623372052457</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3534427048163618</v>
+        <v>0.0002217897593507946</v>
       </c>
       <c r="F16" t="n">
-        <v>0.420517308093725</v>
+        <v>0.0002638799196984689</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4297820282819796</v>
+        <v>0.000269693648580136</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4324976691492439</v>
+        <v>0.0002713977475082683</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4510388131478801</v>
+        <v>0.000283032549442241</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4742454268143073</v>
+        <v>0.0002975949924925169</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5573368973010696</v>
+        <v>0.0003497359392208918</v>
       </c>
       <c r="L16" t="n">
-        <v>0.05210276719783472</v>
+        <v>3.269514419408462e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>0.08492611273135334</v>
+        <v>5.329220789851014e-05</v>
       </c>
       <c r="N16" t="n">
-        <v>0.3601268746122688</v>
+        <v>0.0002259841602828051</v>
       </c>
       <c r="O16" t="n">
-        <v>0.3753209349020165</v>
+        <v>0.0002355186249338027</v>
       </c>
       <c r="P16" t="n">
-        <v>0.3751322571138944</v>
+        <v>0.0002354002272397714</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.3376297306198476</v>
+        <v>0.0002118669184097503</v>
       </c>
       <c r="R16" t="n">
-        <v>0.248158840745085</v>
+        <v>0.0001557228054776833</v>
       </c>
       <c r="S16" t="n">
-        <v>0.2582091839344728</v>
+        <v>0.0001620295227107505</v>
       </c>
       <c r="T16" t="n">
-        <v>0.2827865403312098</v>
+        <v>0.0001774521241293967</v>
       </c>
       <c r="U16" t="n">
-        <v>0.2990404978302299</v>
+        <v>0.0001876516876600084</v>
       </c>
       <c r="V16" t="n">
-        <v>0.3306738252981362</v>
+        <v>0.0002075020000047408</v>
       </c>
       <c r="W16" t="n">
-        <v>0.336803918644421</v>
+        <v>0.0002113487109696108</v>
       </c>
       <c r="X16" t="n">
-        <v>0.3244252847385511</v>
+        <v>0.0002035809619181742</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.3536434356280359</v>
+        <v>0.0002219157204692695</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.3001940461381407</v>
+        <v>0.0001883755537863272</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.319622301283727</v>
+        <v>0.0002005670291644489</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.317494826248557</v>
+        <v>0.0001992320117213238</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.3085968949005429</v>
+        <v>0.0001936484474674759</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.3683860208660407</v>
+        <v>0.0002311668788255992</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.3785480117834515</v>
+        <v>0.0002375436564175105</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.4604245570185357</v>
+        <v>0.0002889222222124924</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.5529154774170219</v>
+        <v>0.0003469614424249224</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.5226361130961112</v>
+        <v>0.000327960759048195</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.5077065726243934</v>
+        <v>0.0003185922839224723</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.5285355105161026</v>
+        <v>0.0003316627054068683</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.4616642349593978</v>
+        <v>0.0002897001357708416</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.4045435060163899</v>
+        <v>0.0002538561572318193</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.3060710192652825</v>
+        <v>0.0001920634286181393</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.2800045342934607</v>
+        <v>0.0001757063802189505</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.2218654735277002</v>
+        <v>0.0001392233856051023</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.2170700375667129</v>
+        <v>0.0001362141889990439</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.1901447579518631</v>
+        <v>0.0001193182361194021</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.2247383169875296</v>
+        <v>0.0001410261311446917</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.2295373266488097</v>
+        <v>0.0001440375702928004</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.2169228397515723</v>
+        <v>0.0001361218205117272</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.2268869071874327</v>
+        <v>0.0001423743986202576</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.2273385337454784</v>
+        <v>0.0001426577999870433</v>
       </c>
       <c r="AW16" t="n">
-        <v>0.2271468488939778</v>
+        <v>0.000142537515322779</v>
       </c>
     </row>
     <row r="17">
@@ -2851,148 +2851,148 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1365078955885201</v>
+        <v>8.566042784159821e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1484642081031426</v>
+        <v>9.316316488838153e-05</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1440187308435562</v>
+        <v>9.037357178554645e-05</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1728693606023521</v>
+        <v>0.0001084777061873213</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1992460978141816</v>
+        <v>0.0001250294417839304</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2724975718750132</v>
+        <v>0.0001709956665288546</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3306363339532814</v>
+        <v>0.0002074784737125306</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4111979448914124</v>
+        <v>0.0002580319016356333</v>
       </c>
       <c r="J17" t="n">
-        <v>0.4541879300109074</v>
+        <v>0.0002850086600301827</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4844251992030024</v>
+        <v>0.0003039829281821434</v>
       </c>
       <c r="L17" t="n">
-        <v>0.08831010206988524</v>
+        <v>5.541570393000584e-05</v>
       </c>
       <c r="M17" t="n">
-        <v>0.08948920218124314</v>
+        <v>5.615560413556937e-05</v>
       </c>
       <c r="N17" t="n">
-        <v>0.2533071390231958</v>
+        <v>0.0001589534276424881</v>
       </c>
       <c r="O17" t="n">
-        <v>0.2626904983470464</v>
+        <v>0.0001648416040795153</v>
       </c>
       <c r="P17" t="n">
-        <v>0.233481095352891</v>
+        <v>0.0001465123349431781</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.2283405740820503</v>
+        <v>0.0001432865929486169</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3020215573208316</v>
+        <v>0.0001895223401250932</v>
       </c>
       <c r="S17" t="n">
-        <v>0.3241647255391134</v>
+        <v>0.0002034174577310672</v>
       </c>
       <c r="T17" t="n">
-        <v>0.3107279000379528</v>
+        <v>0.0001949856800943228</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2944207367756123</v>
+        <v>0.0001847527292755253</v>
       </c>
       <c r="V17" t="n">
-        <v>0.2529336361045502</v>
+        <v>0.000158719049845707</v>
       </c>
       <c r="W17" t="n">
-        <v>0.2376576510337716</v>
+        <v>0.0001491331763603435</v>
       </c>
       <c r="X17" t="n">
-        <v>0.2201978160034997</v>
+        <v>0.0001381769094551302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.1944073709949898</v>
+        <v>0.0001219930796178182</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.2040574797633094</v>
+        <v>0.000128048644698859</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.2060992933473779</v>
+        <v>0.000129329908499975</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.1804112569358135</v>
+        <v>0.0001132103413501155</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.2528086882745801</v>
+        <v>0.0001586406435049823</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.3139592508765125</v>
+        <v>0.0001970133935400834</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.3258013484087326</v>
+        <v>0.000204444459243489</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.3831129318885831</v>
+        <v>0.0002404082014138453</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.41246784592175</v>
+        <v>0.0002588287805641833</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.4332429064934267</v>
+        <v>0.0002718653933500785</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.4385245087710689</v>
+        <v>0.0002751796654575011</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0.4180839013081281</v>
+        <v>0.0002623529262196799</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.4298917888324244</v>
+        <v>0.000269762524711225</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.3586583141208081</v>
+        <v>0.0002250626200344007</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.250912687041124</v>
+        <v>0.0001574508787947005</v>
       </c>
       <c r="AN17" t="n">
-        <v>0.2384463937770079</v>
+        <v>0.0001496281223892987</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.2090318400322622</v>
+        <v>0.0001311701185670166</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.1847627938991683</v>
+        <v>0.0001159409857311051</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.1602732400573203</v>
+        <v>0.0001005734815241252</v>
       </c>
       <c r="AR17" t="n">
-        <v>0.167986574386686</v>
+        <v>0.0001054136961936883</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.1826483460588803</v>
+        <v>0.0001146141430172317</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.1850678739364341</v>
+        <v>0.0001161324273060078</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.1783396177813237</v>
+        <v>0.0001119103616270238</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.1710264129022815</v>
+        <v>0.0001073212332390194</v>
       </c>
       <c r="AW17" t="n">
-        <v>0.137044272678991</v>
+        <v>8.599701123742365e-05</v>
       </c>
     </row>
   </sheetData>
